--- a/final/SI-building-paper.xlsx
+++ b/final/SI-building-paper.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10190" tabRatio="931"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10190" tabRatio="931" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="User_prompts" sheetId="14" r:id="rId1"/>
-    <sheet name="John_building_properties" sheetId="8" r:id="rId2"/>
-    <sheet name="John_material_intensity" sheetId="6" r:id="rId3"/>
-    <sheet name="John_material_composition" sheetId="10" r:id="rId4"/>
-    <sheet name="John_heating_ventilation" sheetId="11" r:id="rId5"/>
-    <sheet name="Material_properties" sheetId="12" r:id="rId6"/>
-    <sheet name="Material_intensity" sheetId="13" r:id="rId7"/>
-    <sheet name="Viola_Calculated_U" sheetId="15" r:id="rId8"/>
+    <sheet name="2.1.3_Material_intensity" sheetId="13" r:id="rId1"/>
+    <sheet name="2.1.4_Material_properties" sheetId="12" r:id="rId2"/>
+    <sheet name="2.2_User_prompts" sheetId="14" r:id="rId3"/>
+    <sheet name="2.3_John_building_properties" sheetId="8" r:id="rId4"/>
+    <sheet name="2.3_John_material_intensity" sheetId="6" r:id="rId5"/>
+    <sheet name="2.3_John_material_composition" sheetId="10" r:id="rId6"/>
+    <sheet name="2.3_John_heating_ventilation" sheetId="11" r:id="rId7"/>
+    <sheet name="3.1_Viola_Calculated_U" sheetId="15" r:id="rId8"/>
+    <sheet name="3.4_ecoinvent_KBOB_mapping" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="677">
   <si>
     <t xml:space="preserve">Ventilation </t>
   </si>
@@ -1949,6 +1950,114 @@
   </si>
   <si>
     <t>0.00(Old:0.00)</t>
+  </si>
+  <si>
+    <t>KBOB</t>
+  </si>
+  <si>
+    <t>ECOINVENT</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>GHG (kg co2 eq)</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>Lightweight cement stone, natural pumice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">market for cement mortar </t>
+  </si>
+  <si>
+    <t>technosphere</t>
+  </si>
+  <si>
+    <t>ecoinvent 3.8 cutoff</t>
+  </si>
+  <si>
+    <t>aerated concrete block</t>
+  </si>
+  <si>
+    <t>market for concrete block</t>
+  </si>
+  <si>
+    <t>polystyrene foam slab production, 45% recycled</t>
+  </si>
+  <si>
+    <t>Polystyrene extruded (XPS)</t>
+  </si>
+  <si>
+    <t>market for polystyrene, extruded</t>
+  </si>
+  <si>
+    <t>glass wool</t>
+  </si>
+  <si>
+    <t>glass wool mat production</t>
+  </si>
+  <si>
+    <t>Polyurethane (PUR/PIR)</t>
+  </si>
+  <si>
+    <t>market for polyurethane, rigid foam</t>
+  </si>
+  <si>
+    <t>foam glass</t>
+  </si>
+  <si>
+    <t>market for foam glass</t>
+  </si>
+  <si>
+    <t>heat production, borehole heat exchanger, brine-water heat pump 10kW</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>sand-lime brick</t>
+  </si>
+  <si>
+    <t>sand-lime brick production</t>
+  </si>
+  <si>
+    <t>Glued laminated timber, MF bonded, wet area</t>
+  </si>
+  <si>
+    <t>market for cleft timber, measured as dry mass</t>
+  </si>
+  <si>
+    <t>heat, from municipal waste incineration to generic market for heat district or industrial, other than natural gas</t>
+  </si>
+  <si>
+    <t>reinforcement steel</t>
+  </si>
+  <si>
+    <t>market for reinforcing steel</t>
+  </si>
+  <si>
+    <t>cellulose fibers</t>
+  </si>
+  <si>
+    <t>market for cellulose fibre</t>
+  </si>
+  <si>
+    <t>foam glass production, without cullet</t>
+  </si>
+  <si>
+    <t>market for heat, central or small-scale, natural gas</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +2067,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2070,6 +2179,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2091,7 +2222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -2437,13 +2568,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -2633,18 +2870,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2689,20 +2914,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -2716,9 +2932,6 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2730,9 +2943,6 @@
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -2746,9 +2956,6 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2757,9 +2964,6 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -2785,6 +2989,63 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3103,11 +3364,1832 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:C164"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C185" sqref="C185"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="77.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2">
+        <v>0.18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B3">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4">
+        <v>0.12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5">
+        <v>0.12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6">
+        <v>0.12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11">
+        <v>0.35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12">
+        <v>0.17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13">
+        <v>0.17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14">
+        <v>0.17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15">
+        <v>0.17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B16">
+        <v>0.17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17">
+        <v>0.8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18">
+        <v>1.6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>455</v>
+      </c>
+      <c r="B19">
+        <v>0.25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>454</v>
+      </c>
+      <c r="B20">
+        <v>0.18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C21" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>375</v>
+      </c>
+      <c r="B23">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C23" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25">
+        <v>0.1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C26" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>432</v>
+      </c>
+      <c r="B27">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>453</v>
+      </c>
+      <c r="B28">
+        <v>0.8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>481</v>
+      </c>
+      <c r="B29">
+        <v>0.8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30">
+        <v>0.8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31">
+        <v>0.8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B32">
+        <v>0.8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>475</v>
+      </c>
+      <c r="B33">
+        <v>0.8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>376</v>
+      </c>
+      <c r="B34">
+        <v>0.8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>499</v>
+      </c>
+      <c r="B35">
+        <v>0.8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36">
+        <v>0.8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>452</v>
+      </c>
+      <c r="B37">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C37" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>501</v>
+      </c>
+      <c r="B38">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>497</v>
+      </c>
+      <c r="B40">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>500</v>
+      </c>
+      <c r="B41">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>451</v>
+      </c>
+      <c r="B44">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>482</v>
+      </c>
+      <c r="B47">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>422</v>
+      </c>
+      <c r="B48">
+        <v>0.36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49">
+        <v>0.36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>450</v>
+      </c>
+      <c r="B50">
+        <v>0.36</v>
+      </c>
+      <c r="C50" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>437</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>398</v>
+      </c>
+      <c r="B53">
+        <v>0.13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54">
+        <v>0.13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55">
+        <v>0.13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>347</v>
+      </c>
+      <c r="B58">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>418</v>
+      </c>
+      <c r="B59">
+        <v>0.03</v>
+      </c>
+      <c r="C59" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60">
+        <v>0.03</v>
+      </c>
+      <c r="C60" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C61" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>483</v>
+      </c>
+      <c r="B62">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>348</v>
+      </c>
+      <c r="B63">
+        <v>2.9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64">
+        <v>0.7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>399</v>
+      </c>
+      <c r="B65">
+        <v>0.7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66">
+        <v>0.18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>449</v>
+      </c>
+      <c r="B67">
+        <v>0.18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68">
+        <v>0.46</v>
+      </c>
+      <c r="C68" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>377</v>
+      </c>
+      <c r="B69">
+        <v>0.18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>177</v>
+      </c>
+      <c r="B70">
+        <v>0.18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>466</v>
+      </c>
+      <c r="B71">
+        <v>0.17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>431</v>
+      </c>
+      <c r="B72">
+        <v>0.1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>438</v>
+      </c>
+      <c r="B73">
+        <v>0.03</v>
+      </c>
+      <c r="C73" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>135</v>
+      </c>
+      <c r="B74">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>467</v>
+      </c>
+      <c r="B75">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>448</v>
+      </c>
+      <c r="B76">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C76" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>419</v>
+      </c>
+      <c r="B77">
+        <v>0.16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78">
+        <v>0.7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>447</v>
+      </c>
+      <c r="B79">
+        <v>0.17</v>
+      </c>
+      <c r="C79" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>426</v>
+      </c>
+      <c r="B81">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>349</v>
+      </c>
+      <c r="B82">
+        <v>0.8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>378</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>484</v>
+      </c>
+      <c r="B84">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>423</v>
+      </c>
+      <c r="B85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>400</v>
+      </c>
+      <c r="B86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>476</v>
+      </c>
+      <c r="B87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>468</v>
+      </c>
+      <c r="B88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>485</v>
+      </c>
+      <c r="B89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>350</v>
+      </c>
+      <c r="B90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>446</v>
+      </c>
+      <c r="B91">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92">
+        <v>0.2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93">
+        <v>0.5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>351</v>
+      </c>
+      <c r="B94">
+        <v>0.5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95">
+        <v>0.1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>486</v>
+      </c>
+      <c r="B96">
+        <v>0.1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>445</v>
+      </c>
+      <c r="B97">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>487</v>
+      </c>
+      <c r="B98">
+        <v>0.02</v>
+      </c>
+      <c r="C98" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>401</v>
+      </c>
+      <c r="B99">
+        <v>0.11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>402</v>
+      </c>
+      <c r="B100">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>170</v>
+      </c>
+      <c r="B101">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>352</v>
+      </c>
+      <c r="B102">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>477</v>
+      </c>
+      <c r="B103">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>86</v>
+      </c>
+      <c r="B104">
+        <v>0.8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>488</v>
+      </c>
+      <c r="B105">
+        <v>0.5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>380</v>
+      </c>
+      <c r="B106">
+        <v>0.5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>353</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>444</v>
+      </c>
+      <c r="B108">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C108" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>469</v>
+      </c>
+      <c r="B109">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110">
+        <v>0.8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>421</v>
+      </c>
+      <c r="B111">
+        <v>0.8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>403</v>
+      </c>
+      <c r="B112">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>381</v>
+      </c>
+      <c r="B113">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C113" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>489</v>
+      </c>
+      <c r="B114">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>404</v>
+      </c>
+      <c r="B115">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>504</v>
+      </c>
+      <c r="B116">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>478</v>
+      </c>
+      <c r="B117">
+        <v>0.25</v>
+      </c>
+      <c r="C117" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>427</v>
+      </c>
+      <c r="B118">
+        <v>0.25</v>
+      </c>
+      <c r="C118" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>176</v>
+      </c>
+      <c r="B119">
+        <v>0.25</v>
+      </c>
+      <c r="C119" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>382</v>
+      </c>
+      <c r="B120">
+        <v>0.25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>354</v>
+      </c>
+      <c r="B121">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>383</v>
+      </c>
+      <c r="B122">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>169</v>
+      </c>
+      <c r="B123">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>505</v>
+      </c>
+      <c r="B124">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>490</v>
+      </c>
+      <c r="B125">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>503</v>
+      </c>
+      <c r="B126">
+        <v>50.2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>420</v>
+      </c>
+      <c r="B127">
+        <v>50.2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128">
+        <v>7.73</v>
+      </c>
+      <c r="C128" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129">
+        <v>0.35</v>
+      </c>
+      <c r="C129" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>428</v>
+      </c>
+      <c r="B130">
+        <v>1.4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>405</v>
+      </c>
+      <c r="B131">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C131" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>491</v>
+      </c>
+      <c r="B132">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C132" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>439</v>
+      </c>
+      <c r="B133">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C133" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C134" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C135" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C136" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>406</v>
+      </c>
+      <c r="B137">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C137" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>407</v>
+      </c>
+      <c r="B138">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C138" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>408</v>
+      </c>
+      <c r="B139">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C139" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>470</v>
+      </c>
+      <c r="B140">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C140" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>181</v>
+      </c>
+      <c r="B141">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C141" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>471</v>
+      </c>
+      <c r="B142">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C142" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>355</v>
+      </c>
+      <c r="B143">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C143" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>443</v>
+      </c>
+      <c r="B144">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C144" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>356</v>
+      </c>
+      <c r="B145">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C145" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>430</v>
+      </c>
+      <c r="B146">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C146" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C147" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C148" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>146</v>
+      </c>
+      <c r="B149">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C149" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>492</v>
+      </c>
+      <c r="B150">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C150" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>179</v>
+      </c>
+      <c r="B151">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C151" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>171</v>
+      </c>
+      <c r="B152">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C152" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>147</v>
+      </c>
+      <c r="B153">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C153" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>148</v>
+      </c>
+      <c r="B154">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C154" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>442</v>
+      </c>
+      <c r="B155">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C155" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>384</v>
+      </c>
+      <c r="B156">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C156" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>149</v>
+      </c>
+      <c r="B157">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C157" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>594</v>
+      </c>
+      <c r="B158">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C158" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>429</v>
+      </c>
+      <c r="B159">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C159" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>150</v>
+      </c>
+      <c r="B160">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C160" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>357</v>
+      </c>
+      <c r="B161">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C161" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>441</v>
+      </c>
+      <c r="B162">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>472</v>
+      </c>
+      <c r="B164">
+        <v>0.12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>555</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
@@ -3121,90 +5203,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="128" t="s">
         <v>596</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="128" t="s">
         <v>597</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="128" t="s">
         <v>598</v>
       </c>
-      <c r="D1" s="133" t="s">
+      <c r="D1" s="129" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="132">
+      <c r="A2" s="128">
         <v>1</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="128" t="s">
         <v>600</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="133"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="132">
+      <c r="A3" s="128">
         <v>1</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="128" t="s">
         <v>601</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="132">
+      <c r="A4" s="128">
         <v>2</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="128" t="s">
         <v>602</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="128" t="s">
         <v>603</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="129" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="132">
+      <c r="A5" s="128">
         <v>2</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="128" t="s">
         <v>605</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="128" t="s">
         <v>603</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="129" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="132">
+      <c r="A6" s="128">
         <v>3</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="128" t="s">
         <v>607</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="130" t="s">
         <v>608</v>
       </c>
-      <c r="D6" s="133">
+      <c r="D6" s="129">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="134">
+      <c r="A7" s="130">
         <v>3</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="130" t="s">
         <v>609</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D8" s="50"/>
@@ -3223,7 +5305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -3234,7 +5316,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="G45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomRight" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3245,46 +5327,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="79" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="119"/>
-      <c r="B1" s="120" t="s">
+      <c r="A1" s="115"/>
+      <c r="B1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="G1" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="H1" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="I1" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="120" t="s">
+      <c r="J1" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="120" t="s">
+      <c r="K1" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="120" t="s">
+      <c r="L1" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="121" t="s">
+      <c r="M1" s="117" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="79" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="118" t="s">
         <v>529</v>
       </c>
       <c r="B2" s="80" t="s">
@@ -3293,7 +5375,7 @@
       <c r="C2" s="80" t="s">
         <v>537</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="119" t="s">
         <v>538</v>
       </c>
       <c r="E2" s="80" t="s">
@@ -3302,7 +5384,7 @@
       <c r="F2" s="80" t="s">
         <v>536</v>
       </c>
-      <c r="G2" s="123" t="s">
+      <c r="G2" s="119" t="s">
         <v>538</v>
       </c>
       <c r="H2" s="80" t="s">
@@ -3317,7 +5399,7 @@
       <c r="K2" s="80" t="s">
         <v>536</v>
       </c>
-      <c r="L2" s="123" t="s">
+      <c r="L2" s="119" t="s">
         <v>538</v>
       </c>
       <c r="M2" s="80" t="s">
@@ -3325,57 +5407,57 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="79" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="118" t="s">
         <v>530</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="120" t="s">
         <v>531</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="120" t="s">
         <v>532</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="120" t="s">
         <v>533</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="120" t="s">
         <v>531</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="120" t="s">
         <v>531</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="120" t="s">
         <v>533</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="120" t="s">
         <v>531</v>
       </c>
-      <c r="I3" s="124" t="s">
+      <c r="I3" s="120" t="s">
         <v>534</v>
       </c>
-      <c r="J3" s="124" t="s">
+      <c r="J3" s="120" t="s">
         <v>535</v>
       </c>
-      <c r="K3" s="124" t="s">
+      <c r="K3" s="120" t="s">
         <v>531</v>
       </c>
-      <c r="L3" s="124" t="s">
+      <c r="L3" s="120" t="s">
         <v>533</v>
       </c>
-      <c r="M3" s="125" t="s">
+      <c r="M3" s="121" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="79" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="118" t="s">
         <v>202</v>
       </c>
       <c r="B4" s="48">
         <v>3</v>
       </c>
-      <c r="C4" s="126">
+      <c r="C4" s="122">
         <v>7</v>
       </c>
-      <c r="D4" s="126">
+      <c r="D4" s="122">
         <v>4</v>
       </c>
       <c r="E4" s="48">
@@ -3384,7 +5466,7 @@
       <c r="F4" s="48">
         <v>3</v>
       </c>
-      <c r="G4" s="126">
+      <c r="G4" s="122">
         <v>4</v>
       </c>
       <c r="H4" s="48">
@@ -3393,22 +5475,22 @@
       <c r="I4" s="48">
         <v>7</v>
       </c>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="125"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="121"/>
     </row>
     <row r="5" spans="1:13" s="79" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="118" t="s">
         <v>197</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="122" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="122" t="s">
         <v>204</v>
       </c>
       <c r="E5" s="48" t="s">
@@ -3417,7 +5499,7 @@
       <c r="F5" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="122" t="s">
         <v>204</v>
       </c>
       <c r="H5" s="48" t="s">
@@ -3426,19 +5508,19 @@
       <c r="I5" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="125"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="121"/>
     </row>
     <row r="6" spans="1:13" s="79" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="118" t="s">
         <v>203</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="122" t="s">
         <v>201</v>
       </c>
       <c r="D6" s="48" t="s">
@@ -3459,19 +5541,19 @@
       <c r="I6" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="125"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="121"/>
     </row>
     <row r="7" spans="1:13" s="79" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="118" t="s">
         <v>198</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="122" t="s">
         <v>208</v>
       </c>
       <c r="D7" s="48" t="s">
@@ -3492,19 +5574,19 @@
       <c r="I7" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="125"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="121"/>
     </row>
     <row r="8" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="118" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="123" t="s">
         <v>524</v>
       </c>
       <c r="D8" s="48" t="s">
@@ -3534,18 +5616,18 @@
       <c r="L8" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="M8" s="128" t="s">
+      <c r="M8" s="124" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="118" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="123" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="48" t="s">
@@ -3575,18 +5657,18 @@
       <c r="L9" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="M9" s="128" t="s">
+      <c r="M9" s="124" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="118" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="48">
         <v>5</v>
       </c>
-      <c r="C10" s="127">
+      <c r="C10" s="123">
         <v>3</v>
       </c>
       <c r="D10" s="48">
@@ -3616,18 +5698,18 @@
       <c r="L10" s="48">
         <v>3</v>
       </c>
-      <c r="M10" s="128">
+      <c r="M10" s="124">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="118" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="48">
         <v>1</v>
       </c>
-      <c r="C11" s="127">
+      <c r="C11" s="123">
         <v>1</v>
       </c>
       <c r="D11" s="48">
@@ -3657,18 +5739,18 @@
       <c r="L11" s="48">
         <v>1</v>
       </c>
-      <c r="M11" s="128">
+      <c r="M11" s="124">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="118" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="123" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="48" t="s">
@@ -3698,18 +5780,18 @@
       <c r="L12" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="128" t="s">
+      <c r="M12" s="124" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="118" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="123" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="48" t="s">
@@ -3739,18 +5821,18 @@
       <c r="L13" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="M13" s="128" t="s">
+      <c r="M13" s="124" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="118" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="123" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="48" t="s">
@@ -3770,16 +5852,16 @@
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
       <c r="L14" s="48"/>
-      <c r="M14" s="128"/>
+      <c r="M14" s="124"/>
     </row>
     <row r="15" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="118" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="48">
         <v>35928</v>
       </c>
-      <c r="C15" s="127">
+      <c r="C15" s="123">
         <v>2081</v>
       </c>
       <c r="D15" s="48">
@@ -3809,18 +5891,18 @@
       <c r="L15" s="48">
         <v>7070</v>
       </c>
-      <c r="M15" s="128">
+      <c r="M15" s="124">
         <v>3992.28</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="118" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="48">
         <v>14254</v>
       </c>
-      <c r="C16" s="127">
+      <c r="C16" s="123">
         <v>478</v>
       </c>
       <c r="D16" s="48">
@@ -3850,18 +5932,18 @@
       <c r="L16" s="48">
         <v>2400</v>
       </c>
-      <c r="M16" s="128">
+      <c r="M16" s="124">
         <v>1022.99</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="118" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="48">
         <v>111</v>
       </c>
-      <c r="C17" s="127">
+      <c r="C17" s="123">
         <v>2</v>
       </c>
       <c r="D17" s="48">
@@ -3891,7 +5973,7 @@
       <c r="L17" s="48">
         <v>22</v>
       </c>
-      <c r="M17" s="128">
+      <c r="M17" s="124">
         <v>10</v>
       </c>
     </row>
@@ -4851,13 +6933,13 @@
       </c>
     </row>
     <row r="49" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="122" t="s">
+      <c r="A49" s="118" t="s">
         <v>241</v>
       </c>
       <c r="B49" s="48">
         <v>2350</v>
       </c>
-      <c r="C49" s="127">
+      <c r="C49" s="123">
         <v>190.2</v>
       </c>
       <c r="D49" s="48">
@@ -4887,18 +6969,18 @@
       <c r="L49" s="48">
         <v>665</v>
       </c>
-      <c r="M49" s="128">
+      <c r="M49" s="124">
         <v>168.75</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="122" t="s">
+      <c r="A50" s="118" t="s">
         <v>69</v>
       </c>
       <c r="B50" s="48">
         <v>16746</v>
       </c>
-      <c r="C50" s="127">
+      <c r="C50" s="123">
         <v>886</v>
       </c>
       <c r="D50" s="48">
@@ -4928,18 +7010,18 @@
       <c r="L50" s="48">
         <v>3064</v>
       </c>
-      <c r="M50" s="128">
+      <c r="M50" s="124">
         <v>1354.5</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="122" t="s">
+      <c r="A51" s="118" t="s">
         <v>242</v>
       </c>
       <c r="B51" s="48">
         <v>9386</v>
       </c>
-      <c r="C51" s="127">
+      <c r="C51" s="123">
         <v>438</v>
       </c>
       <c r="D51" s="48">
@@ -4969,18 +7051,18 @@
       <c r="L51" s="48">
         <v>2071</v>
       </c>
-      <c r="M51" s="128">
+      <c r="M51" s="124">
         <v>734.5</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="122" t="s">
+      <c r="A52" s="118" t="s">
         <v>70</v>
       </c>
       <c r="B52" s="48">
         <v>814</v>
       </c>
-      <c r="C52" s="127">
+      <c r="C52" s="123">
         <v>56</v>
       </c>
       <c r="D52" s="48">
@@ -5010,16 +7092,16 @@
       <c r="L52" s="48">
         <v>117</v>
       </c>
-      <c r="M52" s="128"/>
+      <c r="M52" s="124"/>
     </row>
     <row r="53" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="122" t="s">
+      <c r="A53" s="118" t="s">
         <v>71</v>
       </c>
       <c r="B53" s="48">
         <v>402.7</v>
       </c>
-      <c r="C53" s="127">
+      <c r="C53" s="123">
         <v>606</v>
       </c>
       <c r="D53" s="48">
@@ -5028,7 +7110,7 @@
       <c r="E53" s="48">
         <v>411.49</v>
       </c>
-      <c r="F53" s="127">
+      <c r="F53" s="123">
         <v>457.75</v>
       </c>
       <c r="G53" s="48">
@@ -5049,12 +7131,12 @@
       <c r="L53" s="48">
         <v>565</v>
       </c>
-      <c r="M53" s="128">
+      <c r="M53" s="124">
         <v>556</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="122" t="s">
+      <c r="A54" s="118" t="s">
         <v>72</v>
       </c>
       <c r="B54" s="48" t="s">
@@ -5090,10 +7172,10 @@
       <c r="L54" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="M54" s="128"/>
+      <c r="M54" s="124"/>
     </row>
     <row r="55" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="122" t="s">
+      <c r="A55" s="118" t="s">
         <v>74</v>
       </c>
       <c r="B55" s="48" t="s">
@@ -5129,10 +7211,10 @@
       <c r="L55" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="M55" s="128"/>
+      <c r="M55" s="124"/>
     </row>
     <row r="56" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="122" t="s">
+      <c r="A56" s="118" t="s">
         <v>76</v>
       </c>
       <c r="B56" s="48">
@@ -5168,10 +7250,10 @@
       <c r="L56" s="48">
         <v>2824</v>
       </c>
-      <c r="M56" s="128"/>
+      <c r="M56" s="124"/>
     </row>
     <row r="57" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="122" t="s">
+      <c r="A57" s="118" t="s">
         <v>77</v>
       </c>
       <c r="B57" s="48">
@@ -5207,10 +7289,10 @@
       <c r="L57" s="48">
         <v>2966</v>
       </c>
-      <c r="M57" s="128"/>
+      <c r="M57" s="124"/>
     </row>
     <row r="58" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="122" t="s">
+      <c r="A58" s="118" t="s">
         <v>78</v>
       </c>
       <c r="B58" s="48">
@@ -5246,10 +7328,10 @@
       <c r="L58" s="48">
         <v>0.96</v>
       </c>
-      <c r="M58" s="128"/>
+      <c r="M58" s="124"/>
     </row>
     <row r="59" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="122" t="s">
+      <c r="A59" s="118" t="s">
         <v>84</v>
       </c>
       <c r="B59" s="48">
@@ -5285,169 +7367,169 @@
       <c r="L59" s="48">
         <v>15</v>
       </c>
-      <c r="M59" s="128"/>
+      <c r="M59" s="124"/>
     </row>
     <row r="60" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="130" t="s">
+      <c r="B60" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="130" t="s">
+      <c r="C60" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="130" t="s">
+      <c r="D60" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="130" t="s">
+      <c r="E60" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="130" t="s">
+      <c r="F60" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="G60" s="130" t="s">
+      <c r="G60" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="H60" s="130" t="s">
+      <c r="H60" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="I60" s="130" t="s">
+      <c r="I60" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="J60" s="130" t="s">
+      <c r="J60" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="K60" s="130" t="s">
+      <c r="K60" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="L60" s="130" t="s">
+      <c r="L60" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="M60" s="131" t="s">
+      <c r="M60" s="127" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="129" t="s">
+      <c r="A61" s="125" t="s">
         <v>244</v>
       </c>
-      <c r="B61" s="130">
+      <c r="B61" s="126">
         <v>12430</v>
       </c>
-      <c r="C61" s="130">
+      <c r="C61" s="126">
         <v>350.4</v>
       </c>
-      <c r="D61" s="130">
+      <c r="D61" s="126">
         <v>374</v>
       </c>
-      <c r="E61" s="130">
+      <c r="E61" s="126">
         <v>622.20000000000005</v>
       </c>
-      <c r="F61" s="130">
+      <c r="F61" s="126">
         <v>20400</v>
       </c>
-      <c r="G61" s="130">
+      <c r="G61" s="126">
         <v>408</v>
       </c>
-      <c r="H61" s="130">
+      <c r="H61" s="126">
         <v>13441</v>
       </c>
-      <c r="I61" s="130">
+      <c r="I61" s="126">
         <v>1121.9000000000001</v>
       </c>
-      <c r="J61" s="130">
+      <c r="J61" s="126">
         <v>510.1</v>
       </c>
-      <c r="K61" s="130">
+      <c r="K61" s="126">
         <v>1120</v>
       </c>
-      <c r="L61" s="130">
+      <c r="L61" s="126">
         <v>2966</v>
       </c>
-      <c r="M61" s="131">
+      <c r="M61" s="127">
         <v>1170</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="129" t="s">
+      <c r="A62" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="130">
+      <c r="B62" s="126">
         <v>1.05</v>
       </c>
-      <c r="C62" s="130">
+      <c r="C62" s="126">
         <v>1.84</v>
       </c>
-      <c r="D62" s="130">
+      <c r="D62" s="126">
         <v>1.95</v>
       </c>
-      <c r="E62" s="130">
+      <c r="E62" s="126">
         <v>1.46</v>
       </c>
-      <c r="F62" s="130">
+      <c r="F62" s="126">
         <v>0.88</v>
       </c>
-      <c r="G62" s="130">
+      <c r="G62" s="126">
         <v>1.81</v>
       </c>
-      <c r="H62" s="130">
+      <c r="H62" s="126">
         <v>0.78</v>
       </c>
-      <c r="I62" s="130">
+      <c r="I62" s="126">
         <v>1.39</v>
       </c>
-      <c r="J62" s="130">
+      <c r="J62" s="126">
         <v>1.49</v>
       </c>
-      <c r="K62" s="130">
+      <c r="K62" s="126">
         <v>1.38</v>
       </c>
-      <c r="L62" s="130">
+      <c r="L62" s="126">
         <v>0.96</v>
       </c>
-      <c r="M62" s="131">
+      <c r="M62" s="127">
         <v>1.36</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="129" t="s">
+      <c r="A63" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="130" t="s">
+      <c r="B63" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="130" t="s">
+      <c r="C63" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="D63" s="130" t="s">
+      <c r="D63" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="130" t="s">
+      <c r="E63" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="F63" s="130" t="s">
+      <c r="F63" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="G63" s="130" t="s">
+      <c r="G63" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="130" t="s">
+      <c r="H63" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="I63" s="130" t="s">
+      <c r="I63" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="J63" s="130" t="s">
+      <c r="J63" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="K63" s="130" t="s">
+      <c r="K63" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="L63" s="130" t="s">
+      <c r="L63" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="M63" s="131" t="s">
+      <c r="M63" s="127" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5600,7 +7682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -5622,8 +7704,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="115"/>
-      <c r="B1" s="116"/>
+      <c r="A1" s="156"/>
+      <c r="B1" s="157"/>
       <c r="C1" s="99"/>
       <c r="D1" s="99"/>
       <c r="E1" s="99"/>
@@ -5677,8 +7759,8 @@
       <c r="AC1" s="11"/>
     </row>
     <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="117"/>
-      <c r="B2" s="118"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
       <c r="C2" s="104" t="s">
         <v>549</v>
       </c>
@@ -6669,7 +8751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -16476,7 +18558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -17264,1827 +19346,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:C164"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="77.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B2">
-        <v>0.18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B3">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4">
-        <v>0.12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B5">
-        <v>0.12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6">
-        <v>0.12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>456</v>
-      </c>
-      <c r="B7">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>465</v>
-      </c>
-      <c r="B9">
-        <v>2.4E-2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>474</v>
-      </c>
-      <c r="B10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C10" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11">
-        <v>0.35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12">
-        <v>0.17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13">
-        <v>0.17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>343</v>
-      </c>
-      <c r="B14">
-        <v>0.17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>344</v>
-      </c>
-      <c r="B15">
-        <v>0.17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>397</v>
-      </c>
-      <c r="B16">
-        <v>0.17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>374</v>
-      </c>
-      <c r="B17">
-        <v>0.8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18">
-        <v>1.6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>455</v>
-      </c>
-      <c r="B19">
-        <v>0.25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>454</v>
-      </c>
-      <c r="B20">
-        <v>0.18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C21" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>375</v>
-      </c>
-      <c r="B23">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C23" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24">
-        <v>100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25">
-        <v>0.1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>424</v>
-      </c>
-      <c r="B26">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C26" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>432</v>
-      </c>
-      <c r="B27">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>453</v>
-      </c>
-      <c r="B28">
-        <v>0.8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>481</v>
-      </c>
-      <c r="B29">
-        <v>0.8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30">
-        <v>0.8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>165</v>
-      </c>
-      <c r="B31">
-        <v>0.8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>345</v>
-      </c>
-      <c r="B32">
-        <v>0.8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>475</v>
-      </c>
-      <c r="B33">
-        <v>0.8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>376</v>
-      </c>
-      <c r="B34">
-        <v>0.8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>499</v>
-      </c>
-      <c r="B35">
-        <v>0.8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>175</v>
-      </c>
-      <c r="B36">
-        <v>0.8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>452</v>
-      </c>
-      <c r="B37">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C37" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>501</v>
-      </c>
-      <c r="B38">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>497</v>
-      </c>
-      <c r="B40">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>500</v>
-      </c>
-      <c r="B41">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>451</v>
-      </c>
-      <c r="B44">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>180</v>
-      </c>
-      <c r="B45">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>482</v>
-      </c>
-      <c r="B47">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>422</v>
-      </c>
-      <c r="B48">
-        <v>0.36</v>
-      </c>
-      <c r="C48" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49">
-        <v>0.36</v>
-      </c>
-      <c r="C49" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>450</v>
-      </c>
-      <c r="B50">
-        <v>0.36</v>
-      </c>
-      <c r="C50" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>346</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>437</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>398</v>
-      </c>
-      <c r="B53">
-        <v>0.13</v>
-      </c>
-      <c r="C53" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54">
-        <v>0.13</v>
-      </c>
-      <c r="C54" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>152</v>
-      </c>
-      <c r="B55">
-        <v>0.13</v>
-      </c>
-      <c r="C55" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C56" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C57" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>347</v>
-      </c>
-      <c r="B58">
-        <v>52</v>
-      </c>
-      <c r="C58" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>418</v>
-      </c>
-      <c r="B59">
-        <v>0.03</v>
-      </c>
-      <c r="C59" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60">
-        <v>0.03</v>
-      </c>
-      <c r="C60" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>178</v>
-      </c>
-      <c r="B61">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C61" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>483</v>
-      </c>
-      <c r="B62">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C62" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>348</v>
-      </c>
-      <c r="B63">
-        <v>2.9</v>
-      </c>
-      <c r="C63" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64">
-        <v>0.7</v>
-      </c>
-      <c r="C64" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>399</v>
-      </c>
-      <c r="B65">
-        <v>0.7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>134</v>
-      </c>
-      <c r="B66">
-        <v>0.18</v>
-      </c>
-      <c r="C66" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>449</v>
-      </c>
-      <c r="B67">
-        <v>0.18</v>
-      </c>
-      <c r="C67" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>111</v>
-      </c>
-      <c r="B68">
-        <v>0.46</v>
-      </c>
-      <c r="C68" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>377</v>
-      </c>
-      <c r="B69">
-        <v>0.18</v>
-      </c>
-      <c r="C69" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>177</v>
-      </c>
-      <c r="B70">
-        <v>0.18</v>
-      </c>
-      <c r="C70" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>466</v>
-      </c>
-      <c r="B71">
-        <v>0.17</v>
-      </c>
-      <c r="C71" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>431</v>
-      </c>
-      <c r="B72">
-        <v>0.1</v>
-      </c>
-      <c r="C72" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>438</v>
-      </c>
-      <c r="B73">
-        <v>0.03</v>
-      </c>
-      <c r="C73" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>135</v>
-      </c>
-      <c r="B74">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C74" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>467</v>
-      </c>
-      <c r="B75">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C75" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>448</v>
-      </c>
-      <c r="B76">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C76" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>419</v>
-      </c>
-      <c r="B77">
-        <v>0.16</v>
-      </c>
-      <c r="C77" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>136</v>
-      </c>
-      <c r="B78">
-        <v>0.7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>447</v>
-      </c>
-      <c r="B79">
-        <v>0.17</v>
-      </c>
-      <c r="C79" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>173</v>
-      </c>
-      <c r="B80">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="C80" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>426</v>
-      </c>
-      <c r="B81">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="C81" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>349</v>
-      </c>
-      <c r="B82">
-        <v>0.8</v>
-      </c>
-      <c r="C82" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>378</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>484</v>
-      </c>
-      <c r="B84">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C84" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>423</v>
-      </c>
-      <c r="B85">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>400</v>
-      </c>
-      <c r="B86">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>476</v>
-      </c>
-      <c r="B87">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>468</v>
-      </c>
-      <c r="B88">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>485</v>
-      </c>
-      <c r="B89">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>350</v>
-      </c>
-      <c r="B90">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>446</v>
-      </c>
-      <c r="B91">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C91" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>114</v>
-      </c>
-      <c r="B92">
-        <v>0.2</v>
-      </c>
-      <c r="C92" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>137</v>
-      </c>
-      <c r="B93">
-        <v>0.5</v>
-      </c>
-      <c r="C93" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>351</v>
-      </c>
-      <c r="B94">
-        <v>0.5</v>
-      </c>
-      <c r="C94" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>138</v>
-      </c>
-      <c r="B95">
-        <v>0.1</v>
-      </c>
-      <c r="C95" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>486</v>
-      </c>
-      <c r="B96">
-        <v>0.1</v>
-      </c>
-      <c r="C96" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>445</v>
-      </c>
-      <c r="B97">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C97" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>487</v>
-      </c>
-      <c r="B98">
-        <v>0.02</v>
-      </c>
-      <c r="C98" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>401</v>
-      </c>
-      <c r="B99">
-        <v>0.11</v>
-      </c>
-      <c r="C99" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>402</v>
-      </c>
-      <c r="B100">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C100" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>170</v>
-      </c>
-      <c r="B101">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C101" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>352</v>
-      </c>
-      <c r="B102">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C102" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>477</v>
-      </c>
-      <c r="B103">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C103" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>86</v>
-      </c>
-      <c r="B104">
-        <v>0.8</v>
-      </c>
-      <c r="C104" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>488</v>
-      </c>
-      <c r="B105">
-        <v>0.5</v>
-      </c>
-      <c r="C105" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>380</v>
-      </c>
-      <c r="B106">
-        <v>0.5</v>
-      </c>
-      <c r="C106" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>353</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>444</v>
-      </c>
-      <c r="B108">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C108" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>469</v>
-      </c>
-      <c r="B109">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C109" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110">
-        <v>0.8</v>
-      </c>
-      <c r="C110" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>421</v>
-      </c>
-      <c r="B111">
-        <v>0.8</v>
-      </c>
-      <c r="C111" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>403</v>
-      </c>
-      <c r="B112">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C112" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>381</v>
-      </c>
-      <c r="B113">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C113" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>489</v>
-      </c>
-      <c r="B114">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C114" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>404</v>
-      </c>
-      <c r="B115">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C115" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>504</v>
-      </c>
-      <c r="B116">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C116" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>478</v>
-      </c>
-      <c r="B117">
-        <v>0.25</v>
-      </c>
-      <c r="C117" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>427</v>
-      </c>
-      <c r="B118">
-        <v>0.25</v>
-      </c>
-      <c r="C118" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>176</v>
-      </c>
-      <c r="B119">
-        <v>0.25</v>
-      </c>
-      <c r="C119" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>382</v>
-      </c>
-      <c r="B120">
-        <v>0.25</v>
-      </c>
-      <c r="C120" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>354</v>
-      </c>
-      <c r="B121">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C121" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>383</v>
-      </c>
-      <c r="B122">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C122" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>169</v>
-      </c>
-      <c r="B123">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C123" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>505</v>
-      </c>
-      <c r="B124">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C124" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>490</v>
-      </c>
-      <c r="B125">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C125" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>503</v>
-      </c>
-      <c r="B126">
-        <v>50.2</v>
-      </c>
-      <c r="C126" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>420</v>
-      </c>
-      <c r="B127">
-        <v>50.2</v>
-      </c>
-      <c r="C127" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>139</v>
-      </c>
-      <c r="B128">
-        <v>7.73</v>
-      </c>
-      <c r="C128" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>140</v>
-      </c>
-      <c r="B129">
-        <v>0.35</v>
-      </c>
-      <c r="C129" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>428</v>
-      </c>
-      <c r="B130">
-        <v>1.4</v>
-      </c>
-      <c r="C130" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>405</v>
-      </c>
-      <c r="B131">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C131" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>491</v>
-      </c>
-      <c r="B132">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C132" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>439</v>
-      </c>
-      <c r="B133">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C133" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>141</v>
-      </c>
-      <c r="B134">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C134" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>142</v>
-      </c>
-      <c r="B135">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C135" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>143</v>
-      </c>
-      <c r="B136">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C136" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>406</v>
-      </c>
-      <c r="B137">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C137" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>407</v>
-      </c>
-      <c r="B138">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C138" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>408</v>
-      </c>
-      <c r="B139">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C139" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>470</v>
-      </c>
-      <c r="B140">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C140" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>181</v>
-      </c>
-      <c r="B141">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C141" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>471</v>
-      </c>
-      <c r="B142">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C142" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>355</v>
-      </c>
-      <c r="B143">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C143" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>443</v>
-      </c>
-      <c r="B144">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C144" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>356</v>
-      </c>
-      <c r="B145">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C145" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>430</v>
-      </c>
-      <c r="B146">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C146" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>144</v>
-      </c>
-      <c r="B147">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C147" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>145</v>
-      </c>
-      <c r="B148">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C148" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>146</v>
-      </c>
-      <c r="B149">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C149" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>492</v>
-      </c>
-      <c r="B150">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C150" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>179</v>
-      </c>
-      <c r="B151">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C151" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>171</v>
-      </c>
-      <c r="B152">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C152" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>147</v>
-      </c>
-      <c r="B153">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C153" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>148</v>
-      </c>
-      <c r="B154">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C154" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>442</v>
-      </c>
-      <c r="B155">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C155" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>384</v>
-      </c>
-      <c r="B156">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C156" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>149</v>
-      </c>
-      <c r="B157">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C157" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>594</v>
-      </c>
-      <c r="B158">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C158" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>429</v>
-      </c>
-      <c r="B159">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C159" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>150</v>
-      </c>
-      <c r="B160">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C160" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>357</v>
-      </c>
-      <c r="B161">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C161" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>441</v>
-      </c>
-      <c r="B162">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C162" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>472</v>
-      </c>
-      <c r="B164">
-        <v>0.12</v>
-      </c>
-      <c r="C164" t="s">
-        <v>555</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -19093,7 +19354,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19115,930 +19376,936 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="135"/>
-      <c r="B1" s="136"/>
-      <c r="C1" s="137" t="s">
+      <c r="A1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="138" t="s">
+      <c r="D1" s="132" t="s">
         <v>610</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="131" t="s">
         <v>241</v>
       </c>
-      <c r="F1" s="138" t="s">
+      <c r="F1" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="137" t="s">
+      <c r="G1" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="H1" s="138" t="s">
+      <c r="H1" s="132" t="s">
         <v>611</v>
       </c>
-      <c r="I1" s="138" t="s">
+      <c r="I1" s="132" t="s">
         <v>612</v>
       </c>
-      <c r="J1" s="138" t="s">
+      <c r="J1" s="132" t="s">
         <v>613</v>
       </c>
-      <c r="K1" s="138" t="s">
+      <c r="K1" s="132" t="s">
         <v>614</v>
       </c>
-      <c r="L1" s="138" t="s">
+      <c r="L1" s="132" t="s">
         <v>615</v>
       </c>
-      <c r="M1" s="138" t="s">
+      <c r="M1" s="132" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="162" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="133" t="s">
         <v>617</v>
       </c>
-      <c r="C2" s="141">
+      <c r="C2" s="134">
         <v>2012</v>
       </c>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="134" t="s">
         <v>618</v>
       </c>
-      <c r="E2" s="142">
+      <c r="E2" s="135">
         <v>2350</v>
       </c>
-      <c r="F2" s="142">
+      <c r="F2" s="135">
         <v>402.7</v>
       </c>
-      <c r="G2" s="142">
+      <c r="G2" s="135">
         <v>12430</v>
       </c>
-      <c r="H2" s="143">
+      <c r="H2" s="136">
         <v>14.4</v>
       </c>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="144"/>
-      <c r="B3" s="145" t="s">
+      <c r="A3" s="166"/>
+      <c r="B3" s="137" t="s">
         <v>619</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="148">
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="140">
         <v>64.364999999999995</v>
       </c>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148">
+      <c r="I3" s="140"/>
+      <c r="J3" s="140">
         <v>0.21</v>
       </c>
-      <c r="K3" s="148">
+      <c r="K3" s="140">
         <v>0.21</v>
       </c>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148">
+      <c r="L3" s="140"/>
+      <c r="M3" s="140">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="144"/>
-      <c r="B4" s="145" t="s">
+      <c r="A4" s="166"/>
+      <c r="B4" s="137" t="s">
         <v>620</v>
       </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="148">
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="140">
         <v>68.5</v>
       </c>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148">
+      <c r="I4" s="140"/>
+      <c r="J4" s="140">
         <v>0.16</v>
       </c>
-      <c r="K4" s="148">
+      <c r="K4" s="140">
         <v>0.21</v>
       </c>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148">
+      <c r="L4" s="140"/>
+      <c r="M4" s="140">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="149"/>
-      <c r="B5" s="150" t="s">
+      <c r="A5" s="163"/>
+      <c r="B5" s="141" t="s">
         <v>621</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="141" t="s">
         <v>622</v>
       </c>
-      <c r="D5" s="150">
+      <c r="D5" s="141">
         <v>247</v>
       </c>
-      <c r="E5" s="151">
+      <c r="E5" s="142">
         <v>2742.54</v>
       </c>
-      <c r="F5" s="151">
+      <c r="F5" s="142">
         <v>391.13</v>
       </c>
-      <c r="G5" s="151">
+      <c r="G5" s="142">
         <v>11930.05</v>
       </c>
-      <c r="H5" s="152" t="s">
+      <c r="H5" s="143" t="s">
         <v>623</v>
       </c>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153">
+      <c r="I5" s="144"/>
+      <c r="J5" s="144">
         <v>2.1109553533556733E-2</v>
       </c>
-      <c r="K5" s="153">
+      <c r="K5" s="144">
         <v>6.8886374101505485E-2</v>
       </c>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153">
+      <c r="L5" s="144"/>
+      <c r="M5" s="144">
         <v>0.44572905343246744</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="133" t="s">
         <v>617</v>
       </c>
-      <c r="C6" s="140">
+      <c r="C6" s="133">
         <v>2011</v>
       </c>
-      <c r="D6" s="140" t="s">
+      <c r="D6" s="133" t="s">
         <v>532</v>
       </c>
-      <c r="E6" s="155">
+      <c r="E6" s="145">
         <v>190.2</v>
       </c>
-      <c r="F6" s="155">
+      <c r="F6" s="145">
         <v>606</v>
       </c>
-      <c r="G6" s="155">
+      <c r="G6" s="145">
         <v>350.4</v>
       </c>
-      <c r="H6" s="156">
+      <c r="H6" s="146">
         <v>24</v>
       </c>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
     </row>
     <row r="7" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="158"/>
-      <c r="B7" s="150" t="s">
+      <c r="A7" s="161"/>
+      <c r="B7" s="141" t="s">
         <v>621</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="141" t="s">
         <v>622</v>
       </c>
-      <c r="D7" s="150">
+      <c r="D7" s="141">
         <v>1372</v>
       </c>
-      <c r="E7" s="159">
+      <c r="E7" s="148">
         <v>198.05</v>
       </c>
-      <c r="F7" s="159">
+      <c r="F7" s="148">
         <v>569.08000000000004</v>
       </c>
-      <c r="G7" s="159">
+      <c r="G7" s="148">
         <v>372</v>
       </c>
-      <c r="H7" s="160" t="s">
+      <c r="H7" s="149" t="s">
         <v>624</v>
       </c>
-      <c r="I7" s="161">
+      <c r="I7" s="150">
         <v>0.105</v>
       </c>
-      <c r="J7" s="161">
+      <c r="J7" s="150">
         <v>9.2313978494623652E-2</v>
       </c>
-      <c r="K7" s="161">
+      <c r="K7" s="150">
         <v>6.0074688796680493E-2</v>
       </c>
-      <c r="L7" s="161">
+      <c r="L7" s="150">
         <v>0.48139568375575065</v>
       </c>
-      <c r="M7" s="161">
+      <c r="M7" s="150">
         <v>0.19700000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="162" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="133" t="s">
         <v>617</v>
       </c>
-      <c r="C8" s="141">
+      <c r="C8" s="134">
         <v>2011</v>
       </c>
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="134" t="s">
         <v>625</v>
       </c>
-      <c r="E8" s="142">
+      <c r="E8" s="135">
         <v>163.4</v>
       </c>
-      <c r="F8" s="142">
+      <c r="F8" s="135">
         <v>593.33000000000004</v>
       </c>
-      <c r="G8" s="142">
+      <c r="G8" s="135">
         <v>374</v>
       </c>
-      <c r="H8" s="155">
+      <c r="H8" s="145">
         <v>3.3</v>
       </c>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
     </row>
     <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="149"/>
-      <c r="B9" s="150" t="s">
+      <c r="A9" s="163"/>
+      <c r="B9" s="141" t="s">
         <v>621</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="141" t="s">
         <v>622</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="141">
         <v>942</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="142">
         <v>165.20400000000001</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="142">
         <v>560.25599999999997</v>
       </c>
-      <c r="G9" s="151">
+      <c r="G9" s="142">
         <v>330.40800000000002</v>
       </c>
-      <c r="H9" s="152" t="s">
+      <c r="H9" s="143" t="s">
         <v>626</v>
       </c>
-      <c r="I9" s="153">
+      <c r="I9" s="144">
         <v>0.10687015002586653</v>
       </c>
-      <c r="J9" s="153">
+      <c r="J9" s="144">
         <v>0.10808041887099852</v>
       </c>
-      <c r="K9" s="153">
+      <c r="K9" s="144">
         <v>4.2331288343558281E-2</v>
       </c>
-      <c r="L9" s="153">
+      <c r="L9" s="144">
         <v>0.94548166519043397</v>
       </c>
-      <c r="M9" s="153">
+      <c r="M9" s="144">
         <v>5.8847736625514402E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="160" t="s">
         <v>409</v>
       </c>
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="133" t="s">
         <v>617</v>
       </c>
-      <c r="C10" s="140">
+      <c r="C10" s="133">
         <v>2010</v>
       </c>
-      <c r="D10" s="141" t="s">
+      <c r="D10" s="134" t="s">
         <v>618</v>
       </c>
-      <c r="E10" s="155">
+      <c r="E10" s="145">
         <v>240</v>
       </c>
-      <c r="F10" s="155">
+      <c r="F10" s="145">
         <v>411.49</v>
       </c>
-      <c r="G10" s="155">
+      <c r="G10" s="145">
         <v>622.20000000000005</v>
       </c>
-      <c r="H10" s="163" t="s">
+      <c r="H10" s="152" t="s">
         <v>627</v>
       </c>
-      <c r="I10" s="157"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="157"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
     </row>
     <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="158"/>
-      <c r="B11" s="150" t="s">
+      <c r="A11" s="161"/>
+      <c r="B11" s="141" t="s">
         <v>621</v>
       </c>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="141" t="s">
         <v>628</v>
       </c>
-      <c r="D11" s="150">
+      <c r="D11" s="141">
         <v>250</v>
       </c>
-      <c r="E11" s="159">
+      <c r="E11" s="148">
         <v>241.64</v>
       </c>
-      <c r="F11" s="159">
+      <c r="F11" s="148">
         <v>419.8</v>
       </c>
-      <c r="G11" s="159">
+      <c r="G11" s="148">
         <v>664.51</v>
       </c>
-      <c r="H11" s="160" t="s">
+      <c r="H11" s="149" t="s">
         <v>629</v>
       </c>
-      <c r="I11" s="161">
+      <c r="I11" s="150">
         <v>5.4888888888888883E-2</v>
       </c>
-      <c r="J11" s="161">
+      <c r="J11" s="150">
         <v>0.13248017641019533</v>
       </c>
-      <c r="K11" s="161">
+      <c r="K11" s="150">
         <v>0.21</v>
       </c>
-      <c r="L11" s="161">
+      <c r="L11" s="150">
         <v>1.2225913620657858</v>
       </c>
-      <c r="M11" s="161">
+      <c r="M11" s="150">
         <v>1.8486055779999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="162" t="s">
         <v>410</v>
       </c>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="133" t="s">
         <v>617</v>
       </c>
-      <c r="C12" s="141">
+      <c r="C12" s="134">
         <v>2007</v>
       </c>
-      <c r="D12" s="141" t="s">
+      <c r="D12" s="134" t="s">
         <v>618</v>
       </c>
-      <c r="E12" s="142">
+      <c r="E12" s="135">
         <v>2218</v>
       </c>
-      <c r="F12" s="142">
+      <c r="F12" s="135">
         <v>457.75</v>
       </c>
-      <c r="G12" s="142">
+      <c r="G12" s="135">
         <v>20400</v>
       </c>
-      <c r="H12" s="164">
+      <c r="H12" s="153">
         <v>18.36</v>
       </c>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
     </row>
     <row r="13" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="149"/>
-      <c r="B13" s="150" t="s">
+      <c r="A13" s="163"/>
+      <c r="B13" s="141" t="s">
         <v>621</v>
       </c>
-      <c r="C13" s="150" t="s">
+      <c r="C13" s="141" t="s">
         <v>628</v>
       </c>
-      <c r="D13" s="150">
+      <c r="D13" s="141">
         <v>261</v>
       </c>
-      <c r="E13" s="151">
+      <c r="E13" s="142">
         <v>2591.15</v>
       </c>
-      <c r="F13" s="151">
+      <c r="F13" s="142">
         <v>403.46100000000001</v>
       </c>
-      <c r="G13" s="151">
+      <c r="G13" s="142">
         <v>25911.5</v>
       </c>
-      <c r="H13" s="152" t="s">
+      <c r="H13" s="143" t="s">
         <v>630</v>
       </c>
-      <c r="I13" s="153">
+      <c r="I13" s="144">
         <v>4.666452137563145E-2</v>
       </c>
-      <c r="J13" s="153">
+      <c r="J13" s="144">
         <v>4.9891093602341313E-2</v>
       </c>
-      <c r="K13" s="153">
+      <c r="K13" s="144">
         <v>5.9583333333333335E-2</v>
       </c>
-      <c r="L13" s="153">
+      <c r="L13" s="144">
         <v>0.30686907807540842</v>
       </c>
-      <c r="M13" s="153">
+      <c r="M13" s="144">
         <v>0.6484431773241105</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="160" t="s">
         <v>411</v>
       </c>
-      <c r="B14" s="140" t="s">
+      <c r="B14" s="133" t="s">
         <v>617</v>
       </c>
-      <c r="C14" s="140">
+      <c r="C14" s="133">
         <v>2006</v>
       </c>
-      <c r="D14" s="141" t="s">
+      <c r="D14" s="134" t="s">
         <v>625</v>
       </c>
-      <c r="E14" s="155">
+      <c r="E14" s="145">
         <v>777</v>
       </c>
-      <c r="F14" s="155">
+      <c r="F14" s="145">
         <v>500</v>
       </c>
-      <c r="G14" s="155">
+      <c r="G14" s="145">
         <v>408</v>
       </c>
-      <c r="H14" s="155">
+      <c r="H14" s="145">
         <v>3.3</v>
       </c>
-      <c r="I14" s="162"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="162"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
     </row>
     <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="158"/>
-      <c r="B15" s="150" t="s">
+      <c r="A15" s="161"/>
+      <c r="B15" s="141" t="s">
         <v>631</v>
       </c>
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="141" t="s">
         <v>628</v>
       </c>
-      <c r="D15" s="150">
+      <c r="D15" s="141">
         <v>616</v>
       </c>
-      <c r="E15" s="159">
+      <c r="E15" s="148">
         <v>800.18799999999999</v>
       </c>
-      <c r="F15" s="159">
+      <c r="F15" s="148">
         <v>522.899</v>
       </c>
-      <c r="G15" s="159">
+      <c r="G15" s="148">
         <v>800.18799999999999</v>
       </c>
-      <c r="H15" s="160" t="s">
+      <c r="H15" s="149" t="s">
         <v>632</v>
       </c>
-      <c r="I15" s="161">
+      <c r="I15" s="150">
         <v>0.05</v>
       </c>
-      <c r="J15" s="161">
+      <c r="J15" s="150">
         <v>5.3762206186365E-2</v>
       </c>
-      <c r="K15" s="161">
+      <c r="K15" s="150">
         <v>9.696969696969697E-2</v>
       </c>
-      <c r="L15" s="161">
+      <c r="L15" s="150">
         <v>1.3187779323099682</v>
       </c>
-      <c r="M15" s="161">
+      <c r="M15" s="150">
         <v>3.2</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="139" t="s">
+      <c r="A16" s="162" t="s">
         <v>412</v>
       </c>
-      <c r="B16" s="140" t="s">
+      <c r="B16" s="133" t="s">
         <v>617</v>
       </c>
-      <c r="C16" s="141">
+      <c r="C16" s="134">
         <v>2011</v>
       </c>
-      <c r="D16" s="141" t="s">
+      <c r="D16" s="134" t="s">
         <v>618</v>
       </c>
-      <c r="E16" s="142">
+      <c r="E16" s="135">
         <v>1810</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="135">
         <v>418.1</v>
       </c>
-      <c r="G16" s="142">
+      <c r="G16" s="135">
         <v>13441</v>
       </c>
-      <c r="H16" s="143">
+      <c r="H16" s="136">
         <v>12.1</v>
       </c>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="165"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
     </row>
     <row r="17" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="149"/>
-      <c r="B17" s="150" t="s">
+      <c r="A17" s="163"/>
+      <c r="B17" s="141" t="s">
         <v>621</v>
       </c>
-      <c r="C17" s="150" t="s">
+      <c r="C17" s="141" t="s">
         <v>622</v>
       </c>
-      <c r="D17" s="150">
+      <c r="D17" s="141">
         <v>261</v>
       </c>
-      <c r="E17" s="151">
+      <c r="E17" s="142">
         <v>1906.35</v>
       </c>
-      <c r="F17" s="151">
+      <c r="F17" s="142">
         <v>418.15</v>
       </c>
-      <c r="G17" s="151">
+      <c r="G17" s="142">
         <v>13344.45</v>
       </c>
-      <c r="H17" s="152" t="s">
+      <c r="H17" s="143" t="s">
         <v>633</v>
       </c>
-      <c r="I17" s="153">
+      <c r="I17" s="144">
         <v>0.10939830929885627</v>
       </c>
-      <c r="J17" s="153">
+      <c r="J17" s="144">
         <v>0.11902643344582581</v>
       </c>
-      <c r="K17" s="153">
+      <c r="K17" s="144">
         <v>0.11812500000000001</v>
       </c>
-      <c r="L17" s="153">
+      <c r="L17" s="144">
         <v>1.668934240165687</v>
       </c>
-      <c r="M17" s="153">
+      <c r="M17" s="144">
         <v>0.16600433738684073</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="154" t="s">
+      <c r="A18" s="160" t="s">
         <v>425</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="133" t="s">
         <v>617</v>
       </c>
-      <c r="C18" s="141">
+      <c r="C18" s="134">
         <v>2011</v>
       </c>
-      <c r="D18" s="141" t="s">
+      <c r="D18" s="134" t="s">
         <v>634</v>
       </c>
-      <c r="E18" s="155">
+      <c r="E18" s="145">
         <v>375.3</v>
       </c>
-      <c r="F18" s="155">
+      <c r="F18" s="145">
         <v>498</v>
       </c>
-      <c r="G18" s="155">
+      <c r="G18" s="145">
         <v>1121.9000000000001</v>
       </c>
-      <c r="H18" s="155">
+      <c r="H18" s="145">
         <v>24</v>
       </c>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="162"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
     </row>
     <row r="19" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="158"/>
-      <c r="B19" s="150" t="s">
+      <c r="A19" s="161"/>
+      <c r="B19" s="141" t="s">
         <v>621</v>
       </c>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="141" t="s">
         <v>622</v>
       </c>
-      <c r="D19" s="150">
+      <c r="D19" s="141">
         <v>1059</v>
       </c>
-      <c r="E19" s="159">
+      <c r="E19" s="148">
         <v>374.98</v>
       </c>
-      <c r="F19" s="159">
+      <c r="F19" s="148">
         <v>492.07900000000001</v>
       </c>
-      <c r="G19" s="159">
+      <c r="G19" s="148">
         <v>1124.72</v>
       </c>
-      <c r="H19" s="160" t="s">
+      <c r="H19" s="149" t="s">
         <v>635</v>
       </c>
-      <c r="I19" s="161">
+      <c r="I19" s="150">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="J19" s="161">
+      <c r="J19" s="150">
         <v>0.14148163690858417</v>
       </c>
-      <c r="K19" s="161">
+      <c r="K19" s="150">
         <v>3.3666666666666671E-2</v>
       </c>
-      <c r="L19" s="161">
+      <c r="L19" s="150">
         <v>0.46910045849113718</v>
       </c>
-      <c r="M19" s="161">
+      <c r="M19" s="150">
         <v>5.7271551724137934E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="139" t="s">
+      <c r="A20" s="162" t="s">
         <v>464</v>
       </c>
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="133" t="s">
         <v>617</v>
       </c>
-      <c r="C20" s="141">
+      <c r="C20" s="134">
         <v>2008</v>
       </c>
-      <c r="D20" s="141" t="s">
+      <c r="D20" s="134" t="s">
         <v>636</v>
       </c>
-      <c r="E20" s="142">
+      <c r="E20" s="135">
         <v>135.15</v>
       </c>
-      <c r="F20" s="142">
+      <c r="F20" s="135">
         <v>805</v>
       </c>
-      <c r="G20" s="142">
+      <c r="G20" s="135">
         <v>510.1</v>
       </c>
-      <c r="H20" s="164">
+      <c r="H20" s="153">
         <v>11.2</v>
       </c>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
-      <c r="M20" s="165"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
     </row>
     <row r="21" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="149"/>
-      <c r="B21" s="150" t="s">
+      <c r="A21" s="163"/>
+      <c r="B21" s="141" t="s">
         <v>621</v>
       </c>
-      <c r="C21" s="150" t="s">
+      <c r="C21" s="141" t="s">
         <v>628</v>
       </c>
-      <c r="D21" s="150">
+      <c r="D21" s="141">
         <v>3203</v>
       </c>
-      <c r="E21" s="151">
+      <c r="E21" s="142">
         <v>186.86699999999999</v>
       </c>
-      <c r="F21" s="151">
+      <c r="F21" s="142">
         <v>778.45399999999995</v>
       </c>
-      <c r="G21" s="151">
+      <c r="G21" s="142">
         <v>448.8</v>
       </c>
-      <c r="H21" s="152" t="s">
+      <c r="H21" s="143" t="s">
         <v>637</v>
       </c>
-      <c r="I21" s="153">
+      <c r="I21" s="144">
         <v>0.1</v>
       </c>
-      <c r="J21" s="153">
+      <c r="J21" s="144">
         <v>0.19472937500000001</v>
       </c>
-      <c r="K21" s="153">
+      <c r="K21" s="144">
         <v>0.10999999999999999</v>
       </c>
-      <c r="L21" s="153">
+      <c r="L21" s="144">
         <v>0.14780466598657002</v>
       </c>
-      <c r="M21" s="153">
+      <c r="M21" s="144">
         <v>0.18</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="154" t="s">
+      <c r="A22" s="160" t="s">
         <v>473</v>
       </c>
-      <c r="B22" s="140" t="s">
+      <c r="B22" s="133" t="s">
         <v>617</v>
       </c>
-      <c r="C22" s="140">
+      <c r="C22" s="133">
         <v>2012</v>
       </c>
-      <c r="D22" s="141" t="s">
+      <c r="D22" s="134" t="s">
         <v>618</v>
       </c>
-      <c r="E22" s="155">
+      <c r="E22" s="145">
         <v>411</v>
       </c>
-      <c r="F22" s="155">
+      <c r="F22" s="145">
         <v>440</v>
       </c>
-      <c r="G22" s="155">
+      <c r="G22" s="145">
         <v>1120</v>
       </c>
-      <c r="H22" s="156">
+      <c r="H22" s="146">
         <v>27.8</v>
       </c>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="147"/>
     </row>
     <row r="23" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="158"/>
-      <c r="B23" s="150" t="s">
+      <c r="A23" s="161"/>
+      <c r="B23" s="141" t="s">
         <v>621</v>
       </c>
-      <c r="C23" s="150" t="s">
+      <c r="C23" s="141" t="s">
         <v>622</v>
       </c>
-      <c r="D23" s="150">
+      <c r="D23" s="141">
         <v>261</v>
       </c>
-      <c r="E23" s="159">
+      <c r="E23" s="148">
         <v>411.16500000000002</v>
       </c>
-      <c r="F23" s="159">
+      <c r="F23" s="148">
         <v>435.35</v>
       </c>
-      <c r="G23" s="159">
+      <c r="G23" s="148">
         <v>1151.26</v>
       </c>
-      <c r="H23" s="160" t="s">
+      <c r="H23" s="149" t="s">
         <v>638</v>
       </c>
-      <c r="I23" s="161">
+      <c r="I23" s="150">
         <v>0.11445006713987854</v>
       </c>
-      <c r="J23" s="161">
+      <c r="J23" s="150">
         <v>0.13696709106328259</v>
       </c>
-      <c r="K23" s="161">
+      <c r="K23" s="150">
         <v>5.7766990291262137E-2</v>
       </c>
-      <c r="L23" s="161">
+      <c r="L23" s="150">
         <v>1.2048192770915953</v>
       </c>
-      <c r="M23" s="161">
+      <c r="M23" s="150">
         <v>0.16385466531011705</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="139" t="s">
+      <c r="A24" s="162" t="s">
         <v>479</v>
       </c>
-      <c r="B24" s="140" t="s">
+      <c r="B24" s="133" t="s">
         <v>617</v>
       </c>
-      <c r="C24" s="141">
+      <c r="C24" s="134">
         <v>2012</v>
       </c>
-      <c r="D24" s="141" t="s">
+      <c r="D24" s="134" t="s">
         <v>625</v>
       </c>
-      <c r="E24" s="155">
+      <c r="E24" s="145">
         <v>665</v>
       </c>
-      <c r="F24" s="155">
+      <c r="F24" s="145">
         <v>565</v>
       </c>
-      <c r="G24" s="155">
+      <c r="G24" s="145">
         <v>2966</v>
       </c>
-      <c r="H24" s="155">
+      <c r="H24" s="145">
         <v>11.9</v>
       </c>
-      <c r="I24" s="162"/>
-      <c r="J24" s="162"/>
-      <c r="K24" s="162"/>
-      <c r="L24" s="162"/>
-      <c r="M24" s="162"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
     </row>
     <row r="25" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="149"/>
-      <c r="B25" s="150" t="s">
+      <c r="A25" s="163"/>
+      <c r="B25" s="141" t="s">
         <v>621</v>
       </c>
-      <c r="C25" s="150" t="s">
+      <c r="C25" s="141" t="s">
         <v>622</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="141">
         <v>942</v>
       </c>
-      <c r="E25" s="166">
+      <c r="E25" s="155">
         <v>730.27</v>
       </c>
-      <c r="F25" s="166">
+      <c r="F25" s="155">
         <v>557.91</v>
       </c>
-      <c r="G25" s="166">
+      <c r="G25" s="155">
         <v>2921.06</v>
       </c>
-      <c r="H25" s="152" t="s">
+      <c r="H25" s="143" t="s">
         <v>639</v>
       </c>
-      <c r="I25" s="153">
+      <c r="I25" s="144">
         <v>6.1538461538461542E-2</v>
       </c>
-      <c r="J25" s="153">
+      <c r="J25" s="144">
         <v>0.2895762544218991</v>
       </c>
-      <c r="K25" s="153">
+      <c r="K25" s="144">
         <v>5.2654028436018956E-2</v>
       </c>
-      <c r="L25" s="153">
+      <c r="L25" s="144">
         <v>1.559006122257711</v>
       </c>
-      <c r="M25" s="153">
+      <c r="M25" s="144">
         <v>0.10181818181818182</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="154" t="s">
+      <c r="A26" s="160" t="s">
         <v>493</v>
       </c>
-      <c r="B26" s="140" t="s">
+      <c r="B26" s="133" t="s">
         <v>617</v>
       </c>
-      <c r="C26" s="140">
+      <c r="C26" s="133">
         <v>2008</v>
       </c>
-      <c r="D26" s="140" t="s">
+      <c r="D26" s="133" t="s">
         <v>534</v>
       </c>
-      <c r="E26" s="140">
+      <c r="E26" s="133">
         <v>168.75</v>
       </c>
-      <c r="F26" s="155">
+      <c r="F26" s="145">
         <v>556</v>
       </c>
-      <c r="G26" s="155">
+      <c r="G26" s="145">
         <v>1170</v>
       </c>
-      <c r="H26" s="155">
+      <c r="H26" s="145">
         <v>7.56</v>
       </c>
-      <c r="I26" s="162"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="162"/>
-      <c r="L26" s="162"/>
-      <c r="M26" s="162"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
     </row>
     <row r="27" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="158"/>
-      <c r="B27" s="150" t="s">
+      <c r="A27" s="161"/>
+      <c r="B27" s="141" t="s">
         <v>621</v>
       </c>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="141" t="s">
         <v>628</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="141">
         <v>1061</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="141">
         <v>177.57499999999999</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="141">
         <v>471.36700000000002</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="141">
         <v>1198.8</v>
       </c>
-      <c r="H27" s="160" t="s">
+      <c r="H27" s="149" t="s">
         <v>640</v>
       </c>
-      <c r="I27" s="161">
+      <c r="I27" s="150">
         <v>4.2352941176470586E-2</v>
       </c>
-      <c r="J27" s="161">
+      <c r="J27" s="150">
         <v>5.444924930049673E-2</v>
       </c>
-      <c r="K27" s="161">
+      <c r="K27" s="150">
         <v>4.0857142857142863E-2</v>
       </c>
-      <c r="L27" s="161">
+      <c r="L27" s="150">
         <v>0.27380549275526117</v>
       </c>
-      <c r="M27" s="161">
+      <c r="M27" s="150">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -20046,12 +20313,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I26">
     <cfRule type="colorScale" priority="10">
@@ -20155,4 +20416,498 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="167" t="s">
+        <v>641</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="167" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="169"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="170" t="s">
+        <v>643</v>
+      </c>
+      <c r="B2" s="171" t="s">
+        <v>549</v>
+      </c>
+      <c r="C2" s="171" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2" s="172" t="s">
+        <v>643</v>
+      </c>
+      <c r="E2" s="173" t="s">
+        <v>645</v>
+      </c>
+      <c r="F2" s="173" t="s">
+        <v>549</v>
+      </c>
+      <c r="G2" s="173" t="s">
+        <v>544</v>
+      </c>
+      <c r="H2" s="173" t="s">
+        <v>646</v>
+      </c>
+      <c r="I2" s="174" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="175" t="s">
+        <v>648</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.223</v>
+      </c>
+      <c r="D3" s="176" t="s">
+        <v>650</v>
+      </c>
+      <c r="E3" s="177">
+        <v>1</v>
+      </c>
+      <c r="F3" s="113" t="s">
+        <v>550</v>
+      </c>
+      <c r="G3" s="113" t="s">
+        <v>545</v>
+      </c>
+      <c r="H3" s="113" t="s">
+        <v>651</v>
+      </c>
+      <c r="I3" s="178" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="175" t="s">
+        <v>653</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="D4" s="176" t="s">
+        <v>654</v>
+      </c>
+      <c r="E4" s="177">
+        <v>1</v>
+      </c>
+      <c r="F4" s="113" t="s">
+        <v>550</v>
+      </c>
+      <c r="G4" s="113" t="s">
+        <v>547</v>
+      </c>
+      <c r="H4" s="113" t="s">
+        <v>651</v>
+      </c>
+      <c r="I4" s="178" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C5" s="9">
+        <v>7.64</v>
+      </c>
+      <c r="D5" s="176" t="s">
+        <v>655</v>
+      </c>
+      <c r="E5" s="177">
+        <v>1</v>
+      </c>
+      <c r="F5" s="113" t="s">
+        <v>550</v>
+      </c>
+      <c r="G5" s="113" t="s">
+        <v>545</v>
+      </c>
+      <c r="H5" s="113" t="s">
+        <v>651</v>
+      </c>
+      <c r="I5" s="178" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="175" t="s">
+        <v>656</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C6" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="D6" s="176" t="s">
+        <v>657</v>
+      </c>
+      <c r="E6" s="177">
+        <v>1</v>
+      </c>
+      <c r="F6" s="113" t="s">
+        <v>550</v>
+      </c>
+      <c r="G6" s="113" t="s">
+        <v>546</v>
+      </c>
+      <c r="H6" s="113" t="s">
+        <v>651</v>
+      </c>
+      <c r="I6" s="178" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="175" t="s">
+        <v>658</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D7" s="176" t="s">
+        <v>659</v>
+      </c>
+      <c r="E7" s="177">
+        <v>1</v>
+      </c>
+      <c r="F7" s="113" t="s">
+        <v>550</v>
+      </c>
+      <c r="G7" s="113" t="s">
+        <v>545</v>
+      </c>
+      <c r="H7" s="113" t="s">
+        <v>651</v>
+      </c>
+      <c r="I7" s="178" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="175" t="s">
+        <v>660</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C8" s="9">
+        <v>7.52</v>
+      </c>
+      <c r="D8" s="176" t="s">
+        <v>661</v>
+      </c>
+      <c r="E8" s="177">
+        <v>1</v>
+      </c>
+      <c r="F8" s="113" t="s">
+        <v>550</v>
+      </c>
+      <c r="G8" s="113" t="s">
+        <v>548</v>
+      </c>
+      <c r="H8" s="113" t="s">
+        <v>651</v>
+      </c>
+      <c r="I8" s="178" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="175" t="s">
+        <v>662</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.17</v>
+      </c>
+      <c r="D9" s="176" t="s">
+        <v>663</v>
+      </c>
+      <c r="E9" s="177">
+        <v>1</v>
+      </c>
+      <c r="F9" s="113" t="s">
+        <v>550</v>
+      </c>
+      <c r="G9" s="113" t="s">
+        <v>546</v>
+      </c>
+      <c r="H9" s="113" t="s">
+        <v>651</v>
+      </c>
+      <c r="I9" s="178" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="175"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="176" t="s">
+        <v>664</v>
+      </c>
+      <c r="E10" s="177">
+        <v>1</v>
+      </c>
+      <c r="F10" s="113" t="s">
+        <v>551</v>
+      </c>
+      <c r="G10" s="113" t="s">
+        <v>545</v>
+      </c>
+      <c r="H10" s="113" t="s">
+        <v>665</v>
+      </c>
+      <c r="I10" s="178" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="175" t="s">
+        <v>666</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D11" s="176" t="s">
+        <v>667</v>
+      </c>
+      <c r="E11" s="177">
+        <v>1</v>
+      </c>
+      <c r="F11" s="113" t="s">
+        <v>550</v>
+      </c>
+      <c r="G11" s="113" t="s">
+        <v>547</v>
+      </c>
+      <c r="H11" s="113" t="s">
+        <v>651</v>
+      </c>
+      <c r="I11" s="178" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="175" t="s">
+        <v>668</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D12" s="176" t="s">
+        <v>669</v>
+      </c>
+      <c r="E12" s="177">
+        <v>1</v>
+      </c>
+      <c r="F12" s="113" t="s">
+        <v>550</v>
+      </c>
+      <c r="G12" s="113" t="s">
+        <v>545</v>
+      </c>
+      <c r="H12" s="113" t="s">
+        <v>665</v>
+      </c>
+      <c r="I12" s="178" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="175"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="176" t="s">
+        <v>670</v>
+      </c>
+      <c r="E13" s="177">
+        <v>1</v>
+      </c>
+      <c r="F13" s="113" t="s">
+        <v>551</v>
+      </c>
+      <c r="G13" s="113" t="s">
+        <v>545</v>
+      </c>
+      <c r="H13" s="113" t="s">
+        <v>651</v>
+      </c>
+      <c r="I13" s="178" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="175" t="s">
+        <v>671</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="D14" s="176" t="s">
+        <v>672</v>
+      </c>
+      <c r="E14" s="177">
+        <v>1</v>
+      </c>
+      <c r="F14" s="113" t="s">
+        <v>550</v>
+      </c>
+      <c r="G14" s="113" t="s">
+        <v>546</v>
+      </c>
+      <c r="H14" s="113" t="s">
+        <v>651</v>
+      </c>
+      <c r="I14" s="178" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="175" t="s">
+        <v>673</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D15" s="176" t="s">
+        <v>674</v>
+      </c>
+      <c r="E15" s="177">
+        <v>1</v>
+      </c>
+      <c r="F15" s="113" t="s">
+        <v>550</v>
+      </c>
+      <c r="G15" s="113" t="s">
+        <v>545</v>
+      </c>
+      <c r="H15" s="113" t="s">
+        <v>651</v>
+      </c>
+      <c r="I15" s="178" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="175" t="s">
+        <v>662</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1.17</v>
+      </c>
+      <c r="D16" s="176" t="s">
+        <v>675</v>
+      </c>
+      <c r="E16" s="177">
+        <v>1</v>
+      </c>
+      <c r="F16" s="113" t="s">
+        <v>550</v>
+      </c>
+      <c r="G16" s="113" t="s">
+        <v>546</v>
+      </c>
+      <c r="H16" s="113" t="s">
+        <v>651</v>
+      </c>
+      <c r="I16" s="178" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="179"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="181" t="s">
+        <v>676</v>
+      </c>
+      <c r="E17" s="182">
+        <v>1</v>
+      </c>
+      <c r="F17" s="183" t="s">
+        <v>551</v>
+      </c>
+      <c r="G17" s="183" t="s">
+        <v>545</v>
+      </c>
+      <c r="H17" s="183" t="s">
+        <v>651</v>
+      </c>
+      <c r="I17" s="184" t="s">
+        <v>652</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/final/SI-building-paper.xlsx
+++ b/final/SI-building-paper.xlsx
@@ -2989,6 +2989,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3000,12 +3015,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3022,6 +3031,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3031,21 +3046,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7704,8 +7704,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="156"/>
-      <c r="B1" s="157"/>
+      <c r="A1" s="171"/>
+      <c r="B1" s="172"/>
       <c r="C1" s="99"/>
       <c r="D1" s="99"/>
       <c r="E1" s="99"/>
@@ -7759,8 +7759,8 @@
       <c r="AC1" s="11"/>
     </row>
     <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
       <c r="C2" s="104" t="s">
         <v>549</v>
       </c>
@@ -18569,7 +18569,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="A21" activeCellId="1" sqref="A16:XFD16 A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19354,7 +19354,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19376,8 +19376,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="164"/>
-      <c r="B1" s="165"/>
+      <c r="A1" s="177"/>
+      <c r="B1" s="178"/>
       <c r="C1" s="131" t="s">
         <v>43</v>
       </c>
@@ -19413,7 +19413,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="175" t="s">
         <v>118</v>
       </c>
       <c r="B2" s="133" t="s">
@@ -19444,7 +19444,7 @@
       <c r="M2" s="136"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="166"/>
+      <c r="A3" s="179"/>
       <c r="B3" s="137" t="s">
         <v>619</v>
       </c>
@@ -19469,7 +19469,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="166"/>
+      <c r="A4" s="179"/>
       <c r="B4" s="137" t="s">
         <v>620</v>
       </c>
@@ -19494,7 +19494,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="163"/>
+      <c r="A5" s="176"/>
       <c r="B5" s="141" t="s">
         <v>621</v>
       </c>
@@ -19529,7 +19529,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="180" t="s">
         <v>164</v>
       </c>
       <c r="B6" s="133" t="s">
@@ -19560,7 +19560,7 @@
       <c r="M6" s="147"/>
     </row>
     <row r="7" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="161"/>
+      <c r="A7" s="181"/>
       <c r="B7" s="141" t="s">
         <v>621</v>
       </c>
@@ -19599,7 +19599,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="175" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="133" t="s">
@@ -19630,7 +19630,7 @@
       <c r="M8" s="151"/>
     </row>
     <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="163"/>
+      <c r="A9" s="176"/>
       <c r="B9" s="141" t="s">
         <v>621</v>
       </c>
@@ -19669,7 +19669,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="180" t="s">
         <v>409</v>
       </c>
       <c r="B10" s="133" t="s">
@@ -19700,7 +19700,7 @@
       <c r="M10" s="147"/>
     </row>
     <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="161"/>
+      <c r="A11" s="181"/>
       <c r="B11" s="141" t="s">
         <v>621</v>
       </c>
@@ -19739,7 +19739,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="175" t="s">
         <v>410</v>
       </c>
       <c r="B12" s="133" t="s">
@@ -19770,7 +19770,7 @@
       <c r="M12" s="154"/>
     </row>
     <row r="13" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="163"/>
+      <c r="A13" s="176"/>
       <c r="B13" s="141" t="s">
         <v>621</v>
       </c>
@@ -19809,7 +19809,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="160" t="s">
+      <c r="A14" s="180" t="s">
         <v>411</v>
       </c>
       <c r="B14" s="133" t="s">
@@ -19840,7 +19840,7 @@
       <c r="M14" s="151"/>
     </row>
     <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="161"/>
+      <c r="A15" s="181"/>
       <c r="B15" s="141" t="s">
         <v>631</v>
       </c>
@@ -19879,7 +19879,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="162" t="s">
+      <c r="A16" s="175" t="s">
         <v>412</v>
       </c>
       <c r="B16" s="133" t="s">
@@ -19910,7 +19910,7 @@
       <c r="M16" s="154"/>
     </row>
     <row r="17" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="163"/>
+      <c r="A17" s="176"/>
       <c r="B17" s="141" t="s">
         <v>621</v>
       </c>
@@ -19949,7 +19949,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="160" t="s">
+      <c r="A18" s="180" t="s">
         <v>425</v>
       </c>
       <c r="B18" s="133" t="s">
@@ -19980,7 +19980,7 @@
       <c r="M18" s="151"/>
     </row>
     <row r="19" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="161"/>
+      <c r="A19" s="181"/>
       <c r="B19" s="141" t="s">
         <v>621</v>
       </c>
@@ -20019,7 +20019,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="162" t="s">
+      <c r="A20" s="175" t="s">
         <v>464</v>
       </c>
       <c r="B20" s="133" t="s">
@@ -20050,7 +20050,7 @@
       <c r="M20" s="154"/>
     </row>
     <row r="21" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="163"/>
+      <c r="A21" s="176"/>
       <c r="B21" s="141" t="s">
         <v>621</v>
       </c>
@@ -20089,7 +20089,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="160" t="s">
+      <c r="A22" s="180" t="s">
         <v>473</v>
       </c>
       <c r="B22" s="133" t="s">
@@ -20120,7 +20120,7 @@
       <c r="M22" s="147"/>
     </row>
     <row r="23" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="161"/>
+      <c r="A23" s="181"/>
       <c r="B23" s="141" t="s">
         <v>621</v>
       </c>
@@ -20159,7 +20159,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="162" t="s">
+      <c r="A24" s="175" t="s">
         <v>479</v>
       </c>
       <c r="B24" s="133" t="s">
@@ -20190,7 +20190,7 @@
       <c r="M24" s="151"/>
     </row>
     <row r="25" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="163"/>
+      <c r="A25" s="176"/>
       <c r="B25" s="141" t="s">
         <v>621</v>
       </c>
@@ -20229,7 +20229,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="160" t="s">
+      <c r="A26" s="180" t="s">
         <v>493</v>
       </c>
       <c r="B26" s="133" t="s">
@@ -20260,7 +20260,7 @@
       <c r="M26" s="151"/>
     </row>
     <row r="27" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="161"/>
+      <c r="A27" s="181"/>
       <c r="B27" s="141" t="s">
         <v>621</v>
       </c>
@@ -20300,12 +20300,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -20313,6 +20307,12 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I26">
     <cfRule type="colorScale" priority="10">
@@ -20423,10 +20423,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20442,52 +20442,52 @@
     <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="167" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="182" t="s">
         <v>641</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="167" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="182" t="s">
         <v>642</v>
       </c>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="169"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="170" t="s">
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="184"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="156" t="s">
         <v>643</v>
       </c>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="157" t="s">
         <v>549</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="157" t="s">
         <v>644</v>
       </c>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="158" t="s">
         <v>643</v>
       </c>
-      <c r="E2" s="173" t="s">
+      <c r="E2" s="159" t="s">
         <v>645</v>
       </c>
-      <c r="F2" s="173" t="s">
+      <c r="F2" s="159" t="s">
         <v>549</v>
       </c>
-      <c r="G2" s="173" t="s">
+      <c r="G2" s="159" t="s">
         <v>544</v>
       </c>
-      <c r="H2" s="173" t="s">
+      <c r="H2" s="159" t="s">
         <v>646</v>
       </c>
-      <c r="I2" s="174" t="s">
+      <c r="I2" s="160" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="175" t="s">
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="161" t="s">
         <v>648</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -20496,10 +20496,10 @@
       <c r="C3" s="9">
         <v>0.223</v>
       </c>
-      <c r="D3" s="176" t="s">
+      <c r="D3" s="162" t="s">
         <v>650</v>
       </c>
-      <c r="E3" s="177">
+      <c r="E3" s="163">
         <v>1</v>
       </c>
       <c r="F3" s="113" t="s">
@@ -20511,12 +20511,12 @@
       <c r="H3" s="113" t="s">
         <v>651</v>
       </c>
-      <c r="I3" s="178" t="s">
+      <c r="I3" s="164" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="175" t="s">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="161" t="s">
         <v>653</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -20525,10 +20525,10 @@
       <c r="C4" s="9">
         <v>0.41699999999999998</v>
       </c>
-      <c r="D4" s="176" t="s">
+      <c r="D4" s="162" t="s">
         <v>654</v>
       </c>
-      <c r="E4" s="177">
+      <c r="E4" s="163">
         <v>1</v>
       </c>
       <c r="F4" s="113" t="s">
@@ -20540,12 +20540,12 @@
       <c r="H4" s="113" t="s">
         <v>651</v>
       </c>
-      <c r="I4" s="178" t="s">
+      <c r="I4" s="164" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="175" t="s">
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="161" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -20554,10 +20554,10 @@
       <c r="C5" s="9">
         <v>7.64</v>
       </c>
-      <c r="D5" s="176" t="s">
+      <c r="D5" s="162" t="s">
         <v>655</v>
       </c>
-      <c r="E5" s="177">
+      <c r="E5" s="163">
         <v>1</v>
       </c>
       <c r="F5" s="113" t="s">
@@ -20569,12 +20569,12 @@
       <c r="H5" s="113" t="s">
         <v>651</v>
       </c>
-      <c r="I5" s="178" t="s">
+      <c r="I5" s="164" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="175" t="s">
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="161" t="s">
         <v>656</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -20583,10 +20583,10 @@
       <c r="C6" s="9">
         <v>14.5</v>
       </c>
-      <c r="D6" s="176" t="s">
+      <c r="D6" s="162" t="s">
         <v>657</v>
       </c>
-      <c r="E6" s="177">
+      <c r="E6" s="163">
         <v>1</v>
       </c>
       <c r="F6" s="113" t="s">
@@ -20598,12 +20598,12 @@
       <c r="H6" s="113" t="s">
         <v>651</v>
       </c>
-      <c r="I6" s="178" t="s">
+      <c r="I6" s="164" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="175" t="s">
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="161" t="s">
         <v>658</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -20612,10 +20612,10 @@
       <c r="C7" s="9">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D7" s="176" t="s">
+      <c r="D7" s="162" t="s">
         <v>659</v>
       </c>
-      <c r="E7" s="177">
+      <c r="E7" s="163">
         <v>1</v>
       </c>
       <c r="F7" s="113" t="s">
@@ -20627,12 +20627,12 @@
       <c r="H7" s="113" t="s">
         <v>651</v>
       </c>
-      <c r="I7" s="178" t="s">
+      <c r="I7" s="164" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="175" t="s">
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="161" t="s">
         <v>660</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -20641,10 +20641,10 @@
       <c r="C8" s="9">
         <v>7.52</v>
       </c>
-      <c r="D8" s="176" t="s">
+      <c r="D8" s="162" t="s">
         <v>661</v>
       </c>
-      <c r="E8" s="177">
+      <c r="E8" s="163">
         <v>1</v>
       </c>
       <c r="F8" s="113" t="s">
@@ -20656,12 +20656,12 @@
       <c r="H8" s="113" t="s">
         <v>651</v>
       </c>
-      <c r="I8" s="178" t="s">
+      <c r="I8" s="164" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="161" t="s">
         <v>662</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -20670,10 +20670,10 @@
       <c r="C9" s="9">
         <v>1.17</v>
       </c>
-      <c r="D9" s="176" t="s">
+      <c r="D9" s="162" t="s">
         <v>663</v>
       </c>
-      <c r="E9" s="177">
+      <c r="E9" s="163">
         <v>1</v>
       </c>
       <c r="F9" s="113" t="s">
@@ -20685,18 +20685,18 @@
       <c r="H9" s="113" t="s">
         <v>651</v>
       </c>
-      <c r="I9" s="178" t="s">
+      <c r="I9" s="164" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="175"/>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="161"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="176" t="s">
+      <c r="D10" s="162" t="s">
         <v>664</v>
       </c>
-      <c r="E10" s="177">
+      <c r="E10" s="163">
         <v>1</v>
       </c>
       <c r="F10" s="113" t="s">
@@ -20708,12 +20708,15 @@
       <c r="H10" s="113" t="s">
         <v>665</v>
       </c>
-      <c r="I10" s="178" t="s">
+      <c r="I10" s="164" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="175" t="s">
+      <c r="J10">
+        <v>3.32E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="161" t="s">
         <v>666</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -20722,10 +20725,10 @@
       <c r="C11" s="9">
         <v>0.13800000000000001</v>
       </c>
-      <c r="D11" s="176" t="s">
+      <c r="D11" s="162" t="s">
         <v>667</v>
       </c>
-      <c r="E11" s="177">
+      <c r="E11" s="163">
         <v>1</v>
       </c>
       <c r="F11" s="113" t="s">
@@ -20737,12 +20740,12 @@
       <c r="H11" s="113" t="s">
         <v>651</v>
       </c>
-      <c r="I11" s="178" t="s">
+      <c r="I11" s="164" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="175" t="s">
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="161" t="s">
         <v>668</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -20751,10 +20754,10 @@
       <c r="C12" s="9">
         <v>0.48499999999999999</v>
       </c>
-      <c r="D12" s="176" t="s">
+      <c r="D12" s="162" t="s">
         <v>669</v>
       </c>
-      <c r="E12" s="177">
+      <c r="E12" s="163">
         <v>1</v>
       </c>
       <c r="F12" s="113" t="s">
@@ -20766,18 +20769,18 @@
       <c r="H12" s="113" t="s">
         <v>665</v>
       </c>
-      <c r="I12" s="178" t="s">
+      <c r="I12" s="164" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="175"/>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="161"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="176" t="s">
+      <c r="D13" s="162" t="s">
         <v>670</v>
       </c>
-      <c r="E13" s="177">
+      <c r="E13" s="163">
         <v>1</v>
       </c>
       <c r="F13" s="113" t="s">
@@ -20789,12 +20792,15 @@
       <c r="H13" s="113" t="s">
         <v>651</v>
       </c>
-      <c r="I13" s="178" t="s">
+      <c r="I13" s="164" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="175" t="s">
+      <c r="J13">
+        <v>1.85E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="161" t="s">
         <v>671</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -20803,10 +20809,10 @@
       <c r="C14" s="9">
         <v>0.68200000000000005</v>
       </c>
-      <c r="D14" s="176" t="s">
+      <c r="D14" s="162" t="s">
         <v>672</v>
       </c>
-      <c r="E14" s="177">
+      <c r="E14" s="163">
         <v>1</v>
       </c>
       <c r="F14" s="113" t="s">
@@ -20818,12 +20824,12 @@
       <c r="H14" s="113" t="s">
         <v>651</v>
       </c>
-      <c r="I14" s="178" t="s">
+      <c r="I14" s="164" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="175" t="s">
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="161" t="s">
         <v>673</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -20832,10 +20838,10 @@
       <c r="C15" s="9">
         <v>0.25700000000000001</v>
       </c>
-      <c r="D15" s="176" t="s">
+      <c r="D15" s="162" t="s">
         <v>674</v>
       </c>
-      <c r="E15" s="177">
+      <c r="E15" s="163">
         <v>1</v>
       </c>
       <c r="F15" s="113" t="s">
@@ -20847,12 +20853,12 @@
       <c r="H15" s="113" t="s">
         <v>651</v>
       </c>
-      <c r="I15" s="178" t="s">
+      <c r="I15" s="164" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="175" t="s">
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="161" t="s">
         <v>662</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -20861,10 +20867,10 @@
       <c r="C16" s="9">
         <v>1.17</v>
       </c>
-      <c r="D16" s="176" t="s">
+      <c r="D16" s="162" t="s">
         <v>675</v>
       </c>
-      <c r="E16" s="177">
+      <c r="E16" s="163">
         <v>1</v>
       </c>
       <c r="F16" s="113" t="s">
@@ -20876,31 +20882,34 @@
       <c r="H16" s="113" t="s">
         <v>651</v>
       </c>
-      <c r="I16" s="178" t="s">
+      <c r="I16" s="164" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="179"/>
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="181" t="s">
+    <row r="17" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="165"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="167" t="s">
         <v>676</v>
       </c>
-      <c r="E17" s="182">
+      <c r="E17" s="168">
         <v>1</v>
       </c>
-      <c r="F17" s="183" t="s">
+      <c r="F17" s="169" t="s">
         <v>551</v>
       </c>
-      <c r="G17" s="183" t="s">
+      <c r="G17" s="169" t="s">
         <v>545</v>
       </c>
-      <c r="H17" s="183" t="s">
+      <c r="H17" s="169" t="s">
         <v>651</v>
       </c>
-      <c r="I17" s="184" t="s">
+      <c r="I17" s="170" t="s">
         <v>652</v>
+      </c>
+      <c r="J17">
+        <v>6.5259999999999999E-2</v>
       </c>
     </row>
   </sheetData>
